--- a/Security Wheel - Sanitized.xlsx
+++ b/Security Wheel - Sanitized.xlsx
@@ -5,28 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\IS\Security\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n00000\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B44ABC-6AD6-4C63-AA0D-D7552B7E96E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27AFD259-1403-4D2D-BD2F-A50360B10F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{DF89B65D-9D59-4D9B-8127-1EBE3BE6E1CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{DF89B65D-9D59-4D9B-8127-1EBE3BE6E1CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Wheel" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Status" sheetId="4" r:id="rId4"/>
+    <sheet name="Status" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Status!$A$1:$E$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Status!$A$1:$E$40</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$B$47</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$47</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$B$45</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$45</definedName>
     <definedName name="ChartData">Sheet1!$A$1:$C$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -48,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
   <si>
     <t>Information Security Governance and Risk Management</t>
   </si>
@@ -83,96 +79,18 @@
     <t>Identity and Access Management (Access Control)</t>
   </si>
   <si>
-    <t>Security Education (Wombat)</t>
-  </si>
-  <si>
-    <t>Password Manager (Thycotic SecureServer)</t>
-  </si>
-  <si>
-    <t>Vendor Remote Access (SecureLink)</t>
-  </si>
-  <si>
     <t>Tool</t>
   </si>
   <si>
     <t>Blah</t>
   </si>
   <si>
-    <t>Network Intrusion Prevention / Intrusion Detection (Cisco FirePower)</t>
-  </si>
-  <si>
-    <t>Data Loss Prevention (Symantec Data Loss Prevention (DLP))</t>
-  </si>
-  <si>
-    <t>Vulnerability Scanner (Nexpose)</t>
-  </si>
-  <si>
-    <t>Security Incident and Event Management (QRadar)</t>
-  </si>
-  <si>
-    <t>Network Address Management (BlueCat)</t>
-  </si>
-  <si>
-    <t>Firewall (Cisco ASA)</t>
-  </si>
-  <si>
-    <t>Heuristic Network Analysis (Cisco Stealthwatch)</t>
-  </si>
-  <si>
-    <t>Perimeter Email Security (ProofPoint Protection Server)</t>
-  </si>
-  <si>
-    <t>Risk Register (Navilogic)</t>
-  </si>
-  <si>
-    <t>User and Entity Behavior Analysis (Risk Fabric)</t>
-  </si>
-  <si>
-    <t>Third-Party Security Ratings (BitSight)</t>
-  </si>
-  <si>
-    <t>Malware Protection (Symantec Endpoint Protection (SEP))</t>
-  </si>
-  <si>
-    <t>Endpoint Encryption (Symantec Endpoint Encryption (SEE))</t>
-  </si>
-  <si>
-    <t>Patch Management (Altiris)</t>
-  </si>
-  <si>
     <t>Threat Modeling ( )</t>
   </si>
   <si>
-    <t>Electronic Prescribing of Controlled Substances (Imprivata EPCS)</t>
-  </si>
-  <si>
-    <t>Multi-Factor Authentication (Imprivata 2FA)</t>
-  </si>
-  <si>
-    <t>Single Sign-On (Imprivata OneSign)</t>
-  </si>
-  <si>
-    <t>Network Monitoring (SolarWinds)</t>
-  </si>
-  <si>
-    <t>Email Threat Response (ProofPoint TRAP)</t>
-  </si>
-  <si>
-    <t>HIPAA Security Compliance (IRM|Security)</t>
-  </si>
-  <si>
-    <t>Threat Intelligence (ThreatStream)</t>
-  </si>
-  <si>
-    <t>Identity Directory (Active Directory)</t>
-  </si>
-  <si>
     <t>Security Domain</t>
   </si>
   <si>
-    <t>Annual Competency Training (HealthStream)</t>
-  </si>
-  <si>
     <t>Key Management ()</t>
   </si>
   <si>
@@ -197,30 +115,12 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Facilility Security (Genetec)</t>
-  </si>
-  <si>
-    <t>Desktop Intrusion Prevention / Detection (Symantec)</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Employee Remote Access (Cisco AnyConnect)</t>
-  </si>
-  <si>
-    <t>Endpoint Network Access Control (Cisco ISE)</t>
-  </si>
-  <si>
     <t>Data Center Network Access Control ()</t>
   </si>
   <si>
-    <t>Email Targeted Attack Protection (ProofPoint TAP)</t>
-  </si>
-  <si>
-    <t>HIPAA Security Risk Analysis (IRM|Pro)</t>
-  </si>
-  <si>
     <t>Forensic Investigations - Routine ()</t>
   </si>
   <si>
@@ -345,6 +245,27 @@
   </si>
   <si>
     <t>Threat Detection and Response - Email ()</t>
+  </si>
+  <si>
+    <t>Desktop Intrusion Prevention / Detection ()</t>
+  </si>
+  <si>
+    <t>Email Targeted Attack Protection ()</t>
+  </si>
+  <si>
+    <t>HIPAA Security Risk Analysis ()</t>
+  </si>
+  <si>
+    <t>Data Loss Prevention (Symantec Data Loss Prevention ()</t>
+  </si>
+  <si>
+    <t>Employee Remote Access ()</t>
+  </si>
+  <si>
+    <t>Facilility Security ()</t>
+  </si>
+  <si>
+    <t>Endpoint Network Access Control ()</t>
   </si>
 </sst>
 </file>
@@ -360,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,12 +300,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -398,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -408,7 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -562,84 +476,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
-      </cx:strDim>
-      <cx:numDim type="size">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="treemap" uniqueId="{2037573B-6712-46C5-8848-B03F11479C9E}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>Blah</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataLabels pos="inEnd">
-            <cx:visibility seriesName="0" categoryName="1" value="0"/>
-            <cx:dataLabel idx="27"/>
-          </cx:dataLabels>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:parentLabelLayout val="overlapping"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1191,560 +1028,97 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="415">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1">
-          <a:lumMod val="65000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3645478" cy="1297919"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4692B3-F030-4998-A299-B787DC8ECFC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9464386" y="2606386"/>
+          <a:ext cx="3645478" cy="1297919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-            <a:lumOff val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" spc="100">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Column A is the domain. This will serve as the first ring and I like to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> think of it as the problem we are looking to solve.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Column B is the security area or topic within this domain with the product or service used in ().</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Column C is used to generate the chart.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2184,86 +1558,111 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73747899-319E-4472-BD2F-AA958AA1F530}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="219074" y="204787"/>
-              <a:ext cx="16230601" cy="8129588"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:ext cx="6734176" cy="1814599"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEFAC4A-8840-4749-9CC2-560990DF7B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381875" y="600074"/>
+          <a:ext cx="6734176" cy="1814599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Column</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> A is used to rank security areas by priority. This is used to determine where the next dollar should be spent if multiple areas need resources.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Colmn B is used to list out the security areas, with the product or service in () that addresses this area.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Column C is a color coded R, Y, G status showing how well this item is managed.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Column D lists the metrics used to determine the color in Column C.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Column E lists the staffing requirements to manage this system or service.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2566,33 +1965,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CCAA8-4738-4864-865F-A4A32D6A7AC3}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.28515625" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>63</v>
+      <c r="B2" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -2602,8 +2001,8 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>64</v>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -2613,8 +2012,8 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>65</v>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -2624,8 +2023,8 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>41</v>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -2635,8 +2034,8 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>66</v>
+      <c r="B6" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -2646,8 +2045,8 @@
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>67</v>
+      <c r="B7" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -2657,8 +2056,8 @@
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>68</v>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -2668,8 +2067,8 @@
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>46</v>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -2679,8 +2078,8 @@
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>69</v>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -2690,8 +2089,8 @@
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>70</v>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -2701,8 +2100,8 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>71</v>
+      <c r="B12" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2712,8 +2111,8 @@
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>72</v>
+      <c r="B13" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -2723,8 +2122,8 @@
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>73</v>
+      <c r="B14" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -2734,8 +2133,8 @@
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>74</v>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -2745,8 +2144,8 @@
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>75</v>
+      <c r="B16" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -2756,8 +2155,8 @@
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>75</v>
+      <c r="B17" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -2767,8 +2166,8 @@
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>76</v>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -2778,8 +2177,8 @@
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>77</v>
+      <c r="B19" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -2789,8 +2188,8 @@
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>60</v>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -2800,8 +2199,8 @@
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>78</v>
+      <c r="B21" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C21">
         <v>10</v>
@@ -2811,8 +2210,8 @@
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>79</v>
+      <c r="B22" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -2822,8 +2221,8 @@
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>80</v>
+      <c r="B23" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -2833,32 +2232,32 @@
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>81</v>
+      <c r="B24" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="B26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="6">
         <v>10</v>
       </c>
     </row>
@@ -2866,8 +2265,8 @@
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>82</v>
+      <c r="B27" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -2877,8 +2276,8 @@
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>83</v>
+      <c r="B28" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -2888,8 +2287,8 @@
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>84</v>
+      <c r="B29" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -2899,8 +2298,8 @@
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>45</v>
+      <c r="B30" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -2910,8 +2309,8 @@
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>86</v>
+      <c r="B31" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C31">
         <v>10</v>
@@ -2921,8 +2320,8 @@
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>85</v>
+      <c r="B32" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -2932,8 +2331,8 @@
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>30</v>
+      <c r="B33" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -2943,8 +2342,8 @@
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>42</v>
+      <c r="B34" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -2952,10 +2351,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>87</v>
+        <v>17</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C35">
         <v>10</v>
@@ -2963,10 +2362,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C36">
         <v>10</v>
@@ -2974,10 +2373,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>88</v>
+        <v>17</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -2985,10 +2384,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>89</v>
+        <v>17</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -2996,10 +2395,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -3007,10 +2406,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>91</v>
+        <v>17</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C40">
         <v>10</v>
@@ -3018,10 +2417,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>92</v>
+        <v>17</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -3029,10 +2428,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>93</v>
+        <v>17</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -3040,10 +2439,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>94</v>
+        <v>17</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -3051,10 +2450,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>98</v>
+        <v>17</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -3062,10 +2461,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>95</v>
+        <v>17</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C45">
         <v>10</v>
@@ -3073,10 +2472,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>96</v>
+        <v>17</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C46">
         <v>10</v>
@@ -3084,17 +2483,17 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>97</v>
+        <v>30</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C47">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="9"/>
+      <c r="B48" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{5405A11E-6494-40EB-A472-AD055B24460C}">
@@ -3104,6 +2503,7 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3111,7 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99AA707-0203-46C5-BEFB-DC3A20891742}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="K20" zoomScale="42" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K20" zoomScale="42" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BL68" sqref="BL68"/>
     </sheetView>
   </sheetViews>
@@ -3123,27 +2523,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5D11DA-B0AB-4D15-AD50-18CD995A9FFB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE26" sqref="AE26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CD086B-D5CD-4082-80B1-7DB6971681A5}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3154,19 +2539,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3174,156 +2559,160 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3331,7 +2720,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3339,7 +2728,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3347,7 +2736,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3355,104 +2744,150 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E40" xr:uid="{775E03B1-5699-4640-BF55-9484EAD400A6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>